--- a/code/semantic_similarity/BERT/dm_bert.xlsx
+++ b/code/semantic_similarity/BERT/dm_bert.xlsx
@@ -1,46 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,34 +385,310 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -360,4154 +971,4155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A827"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A826"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
+      <c r="A1">
+        <v>0.937444541103159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9374445411031586</v>
+        <v>0.952727332139035</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.9527273321390355</v>
+        <v>0.951080869237788</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.9510808692377877</v>
+        <v>0.981131749425847</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.981131749425847</v>
+        <v>0.947664618740674</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.9476646187406743</v>
+        <v>0.934264044744866</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.934264044744866</v>
+        <v>0.892620957043743</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.8926209570437427</v>
+        <v>0.965813359015051</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.9658133590150506</v>
+        <v>0.926998113671759</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.9269981136717587</v>
+        <v>0.952396544504822</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.9523965445048221</v>
+        <v>0.928612275926462</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.9286122759264622</v>
+        <v>0.892185115291078</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.8921851152910778</v>
+        <v>0.94139027927577</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.9413902792757702</v>
+        <v>0.929364612965458</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.929364612965458</v>
+        <v>0.95921570650952</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.9592157065095199</v>
+        <v>0.886043087769322</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.8860430877693218</v>
+        <v>0.907736883238838</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.9077368832388384</v>
+        <v>0.841828028410336</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.8418280284103355</v>
+        <v>0.898450912128109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.8984509121281092</v>
+        <v>0.938229455670919</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.9382294556709189</v>
+        <v>0.943500036013695</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.9435000360136947</v>
+        <v>0.916972019954061</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.9169720199540609</v>
+        <v>0.926185795291399</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.9261857952913994</v>
+        <v>0.930284352745952</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.9302843527459521</v>
+        <v>0.940686955354759</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.9406869553547587</v>
+        <v>0.933487785452863</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.9334877854528632</v>
+        <v>0.892076100984909</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.8920761009849092</v>
+        <v>0.866058153418625</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.8660581534186251</v>
+        <v>0.929749893287865</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.9297498932878649</v>
+        <v>0.91346260620076</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.9134626062007601</v>
+        <v>0.936645246818433</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.9366452468184328</v>
+        <v>0.864982522298836</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.8649825222988357</v>
+        <v>0.910641349615771</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.9106413496157706</v>
+        <v>0.940201639248266</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.9402016392482663</v>
+        <v>0.906173161860634</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.9061731618606338</v>
+        <v>0.903765626411486</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.9037656264114858</v>
+        <v>0.936448562308162</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.9364485623081622</v>
+        <v>0.872236385385223</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.8722363853852231</v>
+        <v>0.898460791416298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.8984607914162983</v>
+        <v>0.908493796213334</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.9084937962133339</v>
+        <v>0.952462671801018</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.9524626718010184</v>
+        <v>0.920705496978392</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.9207054969783923</v>
+        <v>0.893770156633462</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.8937701566334624</v>
+        <v>0.927268058789944</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.927268058789944</v>
+        <v>0.902315653163354</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.9023156531633543</v>
+        <v>0.952855158456454</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.9528551584564542</v>
+        <v>0.842183058935103</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.8421830589351034</v>
+        <v>0.90514811735295</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.9051481173529499</v>
+        <v>0.959382126567684</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.9593821265676835</v>
+        <v>0.91346260620076</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.9134626062007601</v>
+        <v>0.914425366152573</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.9144253661525729</v>
+        <v>0.932217112765199</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.932217112765199</v>
+        <v>0.931137074448276</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.9311370744482759</v>
+        <v>0.941328590717349</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.9413285907173489</v>
+        <v>0.959997769808137</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.9599977698081366</v>
+        <v>0.965833955047838</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.9658339550478382</v>
+        <v>0.936736263361298</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.9367362633612983</v>
+        <v>0.94425980352974</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.9442598035297405</v>
+        <v>0.900160385223897</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.9001603852238969</v>
+        <v>0.942244226129225</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.9422442261292249</v>
+        <v>0.883919938196482</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.8839199381964823</v>
+        <v>0.946924252392698</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.9469242523926977</v>
+        <v>0.900573562241684</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.9005735622416843</v>
+        <v>0.924435781485358</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.9244357814853577</v>
+        <v>0.912911003787143</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.9129110037871433</v>
+        <v>0.929364612965458</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.929364612965458</v>
+        <v>0.926100171038554</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.9261001710385544</v>
+        <v>0.932207728236511</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.9322077282365109</v>
+        <v>0.907904090348679</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.9079040903486788</v>
+        <v>0.93329004305302</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.93329004305302</v>
+        <v>0.947798796023372</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.947798796023372</v>
+        <v>0.917175567837734</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.9171755678377339</v>
+        <v>0.937809348503583</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.9378093485035828</v>
+        <v>0.991410875824106</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.9914108758241056</v>
+        <v>0.921201642356161</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.9212016423561611</v>
+        <v>0.917414041936595</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.9174140419365953</v>
+        <v>0.939637507359864</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.9396375073598637</v>
+        <v>0.901874218029065</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.9018742180290648</v>
+        <v>0.910277399034715</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.9102773990347148</v>
+        <v>0.926998113671759</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.9269981136717587</v>
+        <v>0.962967879617611</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.9629678796176107</v>
+        <v>0.903765626411486</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.9037656264114858</v>
+        <v>0.945487718418048</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.9454877184180477</v>
+        <v>0.959458088223858</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.9594580882238584</v>
+        <v>0.926681555475393</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.9266815554753933</v>
+        <v>0.984972591436078</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.9849725914360781</v>
+        <v>0.969084768217465</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.9690847682174653</v>
+        <v>0.923602398360763</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.9236023983607627</v>
+        <v>0.920761393163479</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.920761393163479</v>
+        <v>0.937408313530582</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.9374083135305823</v>
+        <v>0.901607878544306</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.9016078785443056</v>
+        <v>0.915480275681733</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.9154802756817334</v>
+        <v>0.917414041936595</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.9174140419365953</v>
+        <v>0.89868586817629</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.8986858681762896</v>
+        <v>0.932757410415528</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.9327574104155283</v>
+        <v>0.898527578939428</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.8985275789394283</v>
+        <v>0.901273384148504</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.9012733841485041</v>
+        <v>0.895273799253995</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.8952737992539948</v>
+        <v>0.902410289125657</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.9024102891256566</v>
+        <v>0.909161134197654</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.9091611341976535</v>
+        <v>0.923602398360763</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.9236023983607627</v>
+        <v>0.925907054119838</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.9259070541198375</v>
+        <v>0.941502357795076</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.9415023577950756</v>
+        <v>0.945228860329176</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.9452288603291756</v>
+        <v>0.923513620362078</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.9235136203620777</v>
+        <v>0.91089084995163</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.9108908499516304</v>
+        <v>0.952906339973335</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.9529063399733351</v>
+        <v>0.891484804804311</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.8914848048043111</v>
+        <v>0.956203635143167</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.9562036351431671</v>
+        <v>0.890899161916408</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.8908991619164076</v>
+        <v>0.894035378326936</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.8940353783269362</v>
+        <v>0.979914700847559</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.9799147008475593</v>
+        <v>0.924657760876518</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.9246577608765181</v>
+        <v>0.937000778169953</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.9370007781699525</v>
+        <v>0.903809617655857</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.903809617655857</v>
+        <v>0.879092976919003</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.8790929769190035</v>
+        <v>0.905738233690442</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.9057382336904423</v>
+        <v>0.923271171288743</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.9232711712887429</v>
+        <v>0.966877270168019</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.9668772701680193</v>
+        <v>0.953671982996016</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.9536719829960156</v>
+        <v>0.899883426905761</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.899883426905761</v>
+        <v>0.912219220914966</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.9122192209149662</v>
+        <v>0.873088741850609</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.8730887418506091</v>
+        <v>0.852355143312864</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.852355143312864</v>
+        <v>0.938229455670919</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.9382294556709189</v>
+        <v>0.901273384148504</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.9012733841485041</v>
+        <v>0.949568380115891</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.9495683801158906</v>
+        <v>0.937681770623214</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.9376817706232141</v>
+        <v>0.902330518009668</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.9023305180096683</v>
+        <v>0.930705382496032</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.9307053824960316</v>
+        <v>0.96596383676464</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.9659638367646403</v>
+        <v>0.928216953903378</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.9282169539033776</v>
+        <v>0.981634787912201</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.9816347879122012</v>
+        <v>0.965833955047838</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.9658339550478382</v>
+        <v>0.946383855958261</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.9463838559582607</v>
+        <v>0.885754955449722</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.8857549554497218</v>
+        <v>0.933347621197068</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.9333476211970677</v>
+        <v>0.94425980352974</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.9442598035297405</v>
+        <v>0.925690531200953</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.9256905312009531</v>
+        <v>0.909887779125096</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.909887779125096</v>
+        <v>0.910440483242156</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>0.9104404832421564</v>
+        <v>0.894092503736481</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>0.8940925037364812</v>
+        <v>0.905403397169028</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>0.9054033971690276</v>
+        <v>0.931867564195907</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>0.9318675641959069</v>
+        <v>0.965675573678101</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>0.9656755736781006</v>
+        <v>0.898527578939428</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>0.8985275789394283</v>
+        <v>0.94139027927577</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>0.9413902792757702</v>
+        <v>0.928698755989616</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>0.9286987559896159</v>
+        <v>0.893770156633462</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>0.8937701566334624</v>
+        <v>0.961570945409164</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>0.9615709454091642</v>
+        <v>0.922220744480992</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>0.9222207444809923</v>
+        <v>0.977525801443247</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>0.9775258014432472</v>
+        <v>0.934008004152811</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>0.9340080041528113</v>
+        <v>0.942405157230402</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>0.9424051572304017</v>
+        <v>0.951964364918235</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>0.9519643649182353</v>
+        <v>0.919130434092475</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>0.9191304340924753</v>
+        <v>0.914619164806156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0.9146191648061556</v>
+        <v>0.898892243398967</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0.8988922433989668</v>
+        <v>0.954866995831762</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>0.9548669958317622</v>
+        <v>0.920088889371613</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>0.9200888893716128</v>
+        <v>0.956793984112456</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>0.9567939841124558</v>
+        <v>0.923169922692527</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>0.9231699226925267</v>
+        <v>0.881750688200176</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>0.8817506882001758</v>
+        <v>0.934926328117148</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>0.934926328117148</v>
+        <v>0.933347621197068</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>0.9333476211970677</v>
+        <v>0.928322763605634</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>0.928322763605634</v>
+        <v>0.936551147176391</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>0.9365511471763912</v>
+        <v>0.97052639161502</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0.9705263916150201</v>
+        <v>0.930581218419525</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>0.9305812184195248</v>
+        <v>0.869177415228772</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>0.8691774152287723</v>
+        <v>0.840873179019211</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0.8408731790192109</v>
+        <v>0.918990038947479</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>0.918990038947479</v>
+        <v>0.936364937246551</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>0.9363649372465512</v>
+        <v>0.94291821523866</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>0.9429182152386602</v>
+        <v>0.961597557789044</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>0.9615975577890437</v>
+        <v>0.941619524723035</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>0.9416195247230352</v>
+        <v>0.889699139133306</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0.8896991391333056</v>
+        <v>0.912821659419469</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0.9128216594194689</v>
+        <v>0.941619524723035</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>0.9416195247230352</v>
+        <v>0.948206660691413</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0.948206660691413</v>
+        <v>0.985679688417409</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0.9856796884174087</v>
+        <v>0.976933239657049</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0.9769332396570494</v>
+        <v>0.888699290723231</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0.8886992907232308</v>
+        <v>0.924420315736525</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>0.9244203157365246</v>
+        <v>0.903072551983106</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>0.9030725519831058</v>
+        <v>0.960368009195733</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>0.9603680091957327</v>
+        <v>0.975427494103231</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>0.9754274941032313</v>
+        <v>0.937809348503583</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>0.9378093485035828</v>
+        <v>0.954181304399155</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>0.9541813043991549</v>
+        <v>0.938186336447246</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>0.9381863364472456</v>
+        <v>0.933797022543938</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>0.9337970225439385</v>
+        <v>0.929696105286577</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>0.9296961052865769</v>
+        <v>0.970420731189823</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.9704207311898227</v>
+        <v>0.947631852186668</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>0.9476318521866685</v>
+        <v>0.949771008541501</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0.9497710085415009</v>
+        <v>0.930484577126514</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>0.930484577126514</v>
+        <v>0.950613396602299</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>0.9506133966022995</v>
+        <v>0.926681555475393</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>0.9266815554753933</v>
+        <v>0.917202762015681</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>0.9172027620156811</v>
+        <v>0.941810934617224</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>0.9418109346172243</v>
+        <v>0.946885860801852</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0.9468858608018522</v>
+        <v>0.925280927478155</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>0.925280927478155</v>
+        <v>0.926185795291399</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>0.9261857952913994</v>
+        <v>0.959114762764185</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>0.9591147627641845</v>
+        <v>0.917077393222923</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>0.9170773932229228</v>
+        <v>0.92152200783158</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>0.9215220078315802</v>
+        <v>0.877043566851553</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>0.8770435668515527</v>
+        <v>0.930284352745952</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>0.9302843527459521</v>
+        <v>0.915680579382271</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>0.9156805793822711</v>
+        <v>0.908081511317283</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>0.9080815113172833</v>
+        <v>0.93309162557323</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>0.9330916255732304</v>
+        <v>0.970555005183348</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>0.9705550051833477</v>
+        <v>0.932345632566005</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>0.9323456325660054</v>
+        <v>0.956348402313968</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>0.9563484023139682</v>
+        <v>0.959627477510372</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>0.9596274775103724</v>
+        <v>0.940528762650664</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>0.9405287626506639</v>
+        <v>0.890707899735322</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>0.8907078997353219</v>
+        <v>0.852355143312864</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>0.852355143312864</v>
+        <v>0.934804401184272</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>0.934804401184272</v>
+        <v>0.954397949705935</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>0.9543979497059351</v>
+        <v>0.940686955354759</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>0.9406869553547587</v>
+        <v>0.885639072322679</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>0.8856390723226795</v>
+        <v>0.909161134197654</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>0.9091611341976535</v>
+        <v>0.921201642356161</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>0.9212016423561611</v>
+        <v>0.884811551492514</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>0.8848115514925139</v>
+        <v>0.909887336778527</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>0.909887336778527</v>
+        <v>0.911667340739252</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>0.9116673407392517</v>
+        <v>0.890707899735322</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>0.8907078997353219</v>
+        <v>0.834617056707239</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>0.8346170567072387</v>
+        <v>0.942405157230402</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>0.9424051572304017</v>
+        <v>0.88209092073039</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>0.8820909207303903</v>
+        <v>0.891484804804311</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>0.8914848048043111</v>
+        <v>0.959210462710119</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>0.9592104627101192</v>
+        <v>0.976933239657049</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>0.9769332396570494</v>
+        <v>0.945558648464934</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>0.9455586484649342</v>
+        <v>0.892227806438483</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>0.8922278064384828</v>
+        <v>0.908231641026354</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>0.9082316410263539</v>
+        <v>0.910277399034715</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>0.9102773990347148</v>
+        <v>0.953039216777403</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>0.9530392167774027</v>
+        <v>0.909887336778527</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>0.909887336778527</v>
+        <v>0.932073221713709</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>0.9320732217137088</v>
+        <v>0.915680579382271</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>0.9156805793822711</v>
+        <v>0.861486676453737</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>0.8614866764537366</v>
+        <v>0.896265042689323</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>0.8962650426893228</v>
+        <v>0.919130434092475</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>0.9191304340924753</v>
+        <v>0.930484577126514</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>0.930484577126514</v>
+        <v>0.873088741850609</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>0.8730887418506091</v>
+        <v>0.889679788625758</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>0.8896797886257576</v>
+        <v>0.917074012037776</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>0.9170740120377758</v>
+        <v>0.842880694198183</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>0.8428806941981831</v>
+        <v>0.925076529234459</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>0.925076529234459</v>
+        <v>0.920424669079087</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>0.9204246690790869</v>
+        <v>0.902524833373765</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>0.9025248333737654</v>
+        <v>0.86445628265982</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>0.86445628265982</v>
+        <v>0.861486676453737</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>0.8614866764537366</v>
+        <v>0.975746012678174</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>0.975746012678174</v>
+        <v>0.906126697203437</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>0.9061266972034371</v>
+        <v>0.926924541322407</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>0.9269245413224074</v>
+        <v>0.929734787672452</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>0.9297347876724524</v>
+        <v>0.925690531200953</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>0.9256905312009531</v>
+        <v>0.920718422762091</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>0.920718422762091</v>
+        <v>0.929077670886243</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>0.9290776708862432</v>
+        <v>0.924558752773555</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>0.9245587527735548</v>
+        <v>0.95593095794753</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>0.9559309579475299</v>
+        <v>0.949922921045967</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>0.949922921045967</v>
+        <v>0.962802863442529</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>0.9628028634425293</v>
+        <v>0.939291845665241</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>0.9392918456652408</v>
+        <v>0.88446058793923</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>0.8844605879392302</v>
+        <v>0.880635193197585</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>0.8806351931975851</v>
+        <v>0.918924945679463</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>0.9189249456794629</v>
+        <v>0.923169922692527</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>0.9231699226925267</v>
+        <v>0.912435223852137</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>0.9124352238521374</v>
+        <v>0.926113323405305</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>0.9261133234053045</v>
+        <v>0.93619896821452</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>0.9361989682145196</v>
+        <v>0.93617966484821</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>0.9361796648482096</v>
+        <v>0.914146337411132</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>0.9141463374111316</v>
+        <v>0.888699290723231</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>0.8886992907232308</v>
+        <v>0.975051464340644</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>0.975051464340644</v>
+        <v>0.900026529664894</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>0.9000265296648942</v>
+        <v>0.894438896015577</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>0.894438896015577</v>
+        <v>0.865148811349789</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>0.8651488113497892</v>
+        <v>0.967615703476742</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>0.9676157034767419</v>
+        <v>0.932988904351203</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>0.9329889043512026</v>
+        <v>0.946389969755497</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>0.9463899697554974</v>
+        <v>0.940886297811597</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>0.9408862978115973</v>
+        <v>0.895647820963489</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>0.8956478209634894</v>
+        <v>0.922000929201389</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>0.922000929201389</v>
+        <v>0.905342984989013</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>0.9053429849890127</v>
+        <v>0.962802863442529</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>0.9628028634425293</v>
+        <v>0.924281179134142</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>0.924281179134142</v>
+        <v>0.894893921548066</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>0.894893921548066</v>
+        <v>0.931931627029286</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>0.9319316270292863</v>
+        <v>0.94421632993248</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>0.9442163299324797</v>
+        <v>0.959210462710119</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>0.9592104627101192</v>
+        <v>0.911920740634982</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>0.9119207406349816</v>
+        <v>0.952462671801018</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>0.9524626718010184</v>
+        <v>0.850925514346072</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>0.8509255143460721</v>
+        <v>0.862957906018064</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>0.8629579060180637</v>
+        <v>0.951262342624692</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>0.9512623426246916</v>
+        <v>0.859232088616946</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>0.8592320886169458</v>
+        <v>0.928135283434497</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>0.9281352834344969</v>
+        <v>0.924435781485358</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>0.9244357814853577</v>
+        <v>0.970420731189823</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>0.9704207311898227</v>
+        <v>0.909957313602942</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>0.9099573136029416</v>
+        <v>0.9159111712203</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>0.9159111712203001</v>
+        <v>0.840247340773779</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>0.8402473407737793</v>
+        <v>0.959253007631864</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>0.9592530076318644</v>
+        <v>0.886043087769322</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>0.8860430877693218</v>
+        <v>0.908493796213334</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>0.9084937962133339</v>
+        <v>0.973589340790585</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>0.9735893407905849</v>
+        <v>0.904842483326392</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>0.9048424833263916</v>
+        <v>0.975427494103231</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>0.9754274941032313</v>
+        <v>0.90027343475361</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>0.9002734347536104</v>
+        <v>0.946389969755497</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>0.9463899697554974</v>
+        <v>0.879432363895888</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>0.8794323638958876</v>
+        <v>0.962030987949697</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>0.9620309879496972</v>
+        <v>0.959338263503291</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>0.959338263503291</v>
+        <v>0.914146337411132</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>0.9141463374111316</v>
+        <v>0.889449109685182</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>0.8894491096851824</v>
+        <v>0.943754173345297</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>0.9437541733452971</v>
+        <v>0.949253342903513</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>0.9492533429035129</v>
+        <v>0.901384464046057</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>0.9013844640460565</v>
+        <v>0.930142172472465</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>0.9301421724724648</v>
+        <v>0.874487450149167</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>0.874487450149167</v>
+        <v>0.936364937246551</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>0.9363649372465512</v>
+        <v>0.953789697453156</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>0.9537896974531556</v>
+        <v>0.930669233213325</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>0.9306692332133253</v>
+        <v>0.932522332612043</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>0.9325223326120428</v>
+        <v>0.864877653218202</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>0.8648776532182019</v>
+        <v>0.903656755810164</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>0.9036567558101638</v>
+        <v>0.910641349615771</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>0.9106413496157706</v>
+        <v>0.960672569649331</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>0.9606725696493308</v>
+        <v>0.905342984989013</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>0.9053429849890127</v>
+        <v>0.871906538741868</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>0.8719065387418681</v>
+        <v>0.891952045178665</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>0.8919520451786653</v>
+        <v>0.943704007238574</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>0.9437040072385738</v>
+        <v>0.931085403165908</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>0.9310854031659084</v>
+        <v>0.930142172472465</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>0.9301421724724648</v>
+        <v>0.959118420040314</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>0.9591184200403144</v>
+        <v>0.928573958584549</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>0.9285739585845495</v>
+        <v>0.888576829871041</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>0.888576829871041</v>
+        <v>0.979914700847559</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>0.9799147008475593</v>
+        <v>0.929217206432194</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>0.9292172064321942</v>
+        <v>0.910440483242156</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>0.9104404832421564</v>
+        <v>0.967423795188163</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>0.9674237951881632</v>
+        <v>0.963538561962522</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>0.9635385619625219</v>
+        <v>0.922519319206694</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>0.9225193192066936</v>
+        <v>0.890736783175653</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>0.8907367831756525</v>
+        <v>0.923228928177391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>0.9232289281773909</v>
+        <v>0.943609327433592</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>0.9436093274335924</v>
+        <v>0.944061825630957</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>0.944061825630957</v>
+        <v>0.910670410917997</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>0.9106704109179975</v>
+        <v>0.928975845383047</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>0.9289758453830467</v>
+        <v>0.92172740775316</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>0.9217274077531602</v>
+        <v>0.935393983264226</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>0.935393983264226</v>
+        <v>0.973111762455559</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>0.9731117624555586</v>
+        <v>0.892993967624967</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>0.8929939676249665</v>
+        <v>0.871681412219015</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>0.8716814122190154</v>
+        <v>0.912167594196614</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>0.9121675941966138</v>
+        <v>0.903544733620768</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>0.9035447336207685</v>
+        <v>0.932522332612043</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>0.9325223326120428</v>
+        <v>0.932050454933444</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>0.9320504549334443</v>
+        <v>0.93871898935503</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>0.9387189893550302</v>
+        <v>0.930186532247717</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>0.9301865322477167</v>
+        <v>0.910920919383086</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>0.9109209193830859</v>
+        <v>0.857584446539549</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>0.857584446539549</v>
+        <v>0.96659827480274</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>0.9665982748027395</v>
+        <v>0.884156624286728</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>0.8841566242867283</v>
+        <v>0.921386492514848</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>0.9213864925148477</v>
+        <v>0.809489415527889</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>0.8094894155278889</v>
+        <v>0.926100171038554</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>0.9261001710385544</v>
+        <v>0.903822361999402</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>0.9038223619994024</v>
+        <v>0.899780040098993</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>0.899780040098993</v>
+        <v>0.934008004152811</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>0.9340080041528113</v>
+        <v>0.960010055913112</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>0.9600100559131117</v>
+        <v>0.935179007385816</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>0.9351790073858158</v>
+        <v>0.90261020189963</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>0.9026102018996305</v>
+        <v>0.889699139133306</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>0.8896991391333056</v>
+        <v>0.975051464340644</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>0.975051464340644</v>
+        <v>0.910920919383086</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>0.9109209193830859</v>
+        <v>0.959154196846996</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>0.9591541968469959</v>
+        <v>0.950903833160669</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>0.9509038331606687</v>
+        <v>0.94365879453971</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>0.9436587945397101</v>
+        <v>0.934804401184272</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>0.934804401184272</v>
+        <v>0.902410289125657</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>0.9024102891256566</v>
+        <v>0.934214541315431</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>0.9342145413154306</v>
+        <v>0.898460791416298</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>0.8984607914162983</v>
+        <v>0.936551147176391</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>0.9365511471763912</v>
+        <v>0.951094451550621</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>0.951094451550621</v>
+        <v>0.972847766619341</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>0.9728477666193406</v>
+        <v>0.91728037407945</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>0.9172803740794496</v>
+        <v>0.959382126567684</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>0.9593821265676835</v>
+        <v>0.969197850819687</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>0.9691978508196868</v>
+        <v>0.969084768217465</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>0.9690847682174653</v>
+        <v>0.916972019954061</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>0.9169720199540609</v>
+        <v>0.920667657240704</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>0.9206676572407037</v>
+        <v>0.918376473057733</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>0.9183764730577333</v>
+        <v>0.93205722108401</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>0.9320572210840098</v>
+        <v>0.956991504825148</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>0.9569915048251477</v>
+        <v>0.892659582863176</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>0.892659582863176</v>
+        <v>0.944679074354273</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>0.9446790743542731</v>
+        <v>0.924462999602317</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>0.9244629996023174</v>
+        <v>0.89086016652376</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>0.8908601665237604</v>
+        <v>0.890915399801921</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>0.8909153998019211</v>
+        <v>0.907180085135388</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>0.9071800851353884</v>
+        <v>0.942553959367554</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>0.9425539593675536</v>
+        <v>0.966877270168019</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>0.9668772701680193</v>
+        <v>0.954509856029875</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>0.9545098560298748</v>
+        <v>0.927140677543961</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>0.927140677543961</v>
+        <v>0.920953796318861</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>0.9209537963188607</v>
+        <v>0.941875917746328</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>0.9418759177463277</v>
+        <v>0.930186532247717</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>0.9301865322477167</v>
+        <v>0.894191116252115</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>0.894191116252115</v>
+        <v>0.892368573045133</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>0.8923685730451333</v>
+        <v>0.960460098923517</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>0.9604600989235174</v>
+        <v>0.926924541322407</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>0.9269245413224074</v>
+        <v>0.953471827191703</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>0.9534718271917026</v>
+        <v>0.888576829871041</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>0.888576829871041</v>
+        <v>0.911207609375118</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>0.9112076093751178</v>
+        <v>0.924558752773555</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>0.9245587527735548</v>
+        <v>0.905000759721887</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>0.9050007597218868</v>
+        <v>0.949922921045967</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>0.949922921045967</v>
+        <v>0.854385860201357</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>0.8543858602013574</v>
+        <v>0.906906722282537</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>0.9069067222825372</v>
+        <v>0.899337068435629</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>0.8993370684356294</v>
+        <v>0.961597557789044</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>0.9615975577890437</v>
+        <v>0.947664618740674</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>0.9476646187406743</v>
+        <v>0.933873738755049</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>0.9338737387550489</v>
+        <v>0.95480154048066</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>0.9548015404806605</v>
+        <v>0.933774730826188</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>0.9337747308261883</v>
+        <v>0.928698755989616</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>0.9286987559896159</v>
+        <v>0.959114762764185</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>0.9591147627641845</v>
+        <v>0.914298694780748</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>0.9142986947807483</v>
+        <v>0.93846025417211</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>0.9384602541721101</v>
+        <v>0.921998438543471</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>0.921998438543471</v>
+        <v>0.967615703476742</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>0.9676157034767419</v>
+        <v>0.872639848703184</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>0.8726398487031843</v>
+        <v>0.920424669079087</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>0.9204246690790869</v>
+        <v>0.809489415527889</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>0.8094894155278889</v>
+        <v>0.949885612783133</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>0.9498856127831334</v>
+        <v>0.894191116252115</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>0.894191116252115</v>
+        <v>0.964295139750544</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>0.9642951397505442</v>
+        <v>0.951262342624692</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>0.9512623426246916</v>
+        <v>0.922998501702618</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>0.9229985017026182</v>
+        <v>0.938833654135198</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>0.938833654135198</v>
+        <v>0.903544733620768</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>0.9035447336207685</v>
+        <v>0.918851116436895</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>0.9188511164368949</v>
+        <v>0.932648983964183</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>0.9326489839641827</v>
+        <v>0.948206660691413</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>0.948206660691413</v>
+        <v>0.929895769363414</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>0.9298957693634136</v>
+        <v>0.889449109685182</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>0.8894491096851824</v>
+        <v>0.911686035077853</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>0.911686035077853</v>
+        <v>0.933726306221572</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>0.9337263062215717</v>
+        <v>0.946139766726035</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>0.9461397667260352</v>
+        <v>0.952906339973335</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>0.9529063399733351</v>
+        <v>0.968504378848635</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>0.9685043788486354</v>
+        <v>0.917074012037776</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>0.9170740120377758</v>
+        <v>0.946386173915753</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>0.9463861739157525</v>
+        <v>0.950043340523856</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>0.9500433405238559</v>
+        <v>0.962967879617611</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>0.9629678796176107</v>
+        <v>0.914183288978851</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>0.9141832889788513</v>
+        <v>0.954397949705935</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>0.9543979497059351</v>
+        <v>0.892227806438483</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>0.8922278064384828</v>
+        <v>0.943609327433592</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>0.9436093274335924</v>
+        <v>0.890915399801921</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>0.8909153998019211</v>
+        <v>0.93580776020232</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>0.9358077602023196</v>
+        <v>0.903809617655857</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>0.903809617655857</v>
+        <v>0.968999714558398</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>0.9689997145583984</v>
+        <v>0.895190596056216</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>0.895190596056216</v>
+        <v>0.897951330956828</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>0.8979513309568279</v>
+        <v>0.914492758610518</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>0.9144927586105183</v>
+        <v>0.895190596056216</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>0.895190596056216</v>
+        <v>0.937681770623214</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>0.9376817706232141</v>
+        <v>0.941328590717349</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>0.9413285907173489</v>
+        <v>0.940994170651453</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>0.9409941706514531</v>
+        <v>0.946139766726035</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>0.9461397667260352</v>
+        <v>0.892620957043743</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>0.8926209570437427</v>
+        <v>0.922000929201389</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>0.922000929201389</v>
+        <v>0.942244226129225</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>0.9422442261292249</v>
+        <v>0.946744712312247</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>0.9467447123122472</v>
+        <v>0.949601172910321</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>0.9496011729103206</v>
+        <v>0.913453394658575</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>0.9134533946585748</v>
+        <v>0.975746012678174</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>0.975746012678174</v>
+        <v>0.92378600700516</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>0.92378600700516</v>
+        <v>0.947673913628021</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>0.9476739136280214</v>
+        <v>0.91602796632479</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>0.9160279663247904</v>
+        <v>0.914298694780748</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>0.9142986947807483</v>
+        <v>0.930121934527338</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>0.9301219345273382</v>
+        <v>0.931624234147958</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>0.9316242341479585</v>
+        <v>0.938154658218259</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>0.9381546582182587</v>
+        <v>0.88446058793923</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>0.8844605879392302</v>
+        <v>0.842183058935103</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>0.8421830589351034</v>
+        <v>0.949771008541501</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>0.9497710085415009</v>
+        <v>0.869888267189918</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>0.8698882671899179</v>
+        <v>0.949532827906505</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>0.9495328279065052</v>
+        <v>0.910628400815763</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>0.9106284008157634</v>
+        <v>0.938665545129084</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>0.938665545129084</v>
+        <v>0.903656755810164</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>0.9036567558101638</v>
+        <v>0.929734787672452</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>0.9297347876724524</v>
+        <v>0.911686035077853</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>0.911686035077853</v>
+        <v>0.866884837051554</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>0.8668848370515536</v>
+        <v>0.953838872496702</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>0.9538388724967022</v>
+        <v>0.890736783175653</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>0.8907367831756525</v>
+        <v>0.909143407874677</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>0.9091434078746766</v>
+        <v>0.934427494127409</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>0.9344274941274089</v>
+        <v>0.924458422470181</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>0.9244584224701813</v>
+        <v>0.943754173345297</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>0.9437541733452971</v>
+        <v>0.914063060813393</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>0.9140630608133934</v>
+        <v>0.941810934617224</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>0.9418109346172243</v>
+        <v>0.918851116436895</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>0.9188511164368949</v>
+        <v>0.86445628265982</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>0.86445628265982</v>
+        <v>0.939108052671951</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>0.9391080526719511</v>
+        <v>0.952786332505497</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>0.9527863325054966</v>
+        <v>0.905000759721887</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>0.9050007597218868</v>
+        <v>0.924293285034605</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>0.9242932850346046</v>
+        <v>0.863983298643703</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>0.8639832986437026</v>
+        <v>0.936736263361298</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>0.9367362633612983</v>
+        <v>0.959263730124643</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>0.9592637301246431</v>
+        <v>0.960010055913112</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>0.9600100559131117</v>
+        <v>0.901563348087817</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>0.9015633480878171</v>
+        <v>0.945487718418048</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>0.9454877184180477</v>
+        <v>0.877854740006597</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>0.8778547400065967</v>
+        <v>0.885754955449722</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>0.8857549554497218</v>
+        <v>0.920718422762091</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>0.920718422762091</v>
+        <v>0.874487450149167</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>0.874487450149167</v>
+        <v>0.931085403165908</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>0.9310854031659084</v>
+        <v>0.961570945409164</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>0.9615709454091642</v>
+        <v>0.936673607064574</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>0.9366736070645738</v>
+        <v>0.957906022727129</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>0.9579060227271293</v>
+        <v>0.947631852186668</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>0.9476318521866685</v>
+        <v>0.921386492514848</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>0.9213864925148477</v>
+        <v>0.929749893287865</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>0.9297498932878649</v>
+        <v>0.947948138994724</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>0.9479481389947237</v>
+        <v>0.92378600700516</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>0.92378600700516</v>
+        <v>0.894035378326936</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>0.8940353783269362</v>
+        <v>0.93226703848615</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>0.9322670384861504</v>
+        <v>0.932345632566005</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>0.9323456325660054</v>
+        <v>0.905403397169028</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>0.9054033971690276</v>
+        <v>0.932217112765199</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>0.932217112765199</v>
+        <v>0.936068908914079</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>0.9360689089140793</v>
+        <v>0.959569126760829</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>0.9595691267608286</v>
+        <v>0.949568380115891</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>0.9495683801158906</v>
+        <v>0.943976525638545</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>0.9439765256385449</v>
+        <v>0.840873179019211</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>0.8408731790192109</v>
+        <v>0.987904650694003</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>0.9879046506940034</v>
+        <v>0.914492758610518</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>0.9144927586105183</v>
+        <v>0.899452218815665</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>0.8994522188156648</v>
+        <v>0.904420974203751</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>0.9044209742037508</v>
+        <v>0.962207598492796</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>0.9622075984927959</v>
+        <v>0.928975845383047</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>0.9289758453830467</v>
+        <v>0.937140599620524</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>0.9371405996205238</v>
+        <v>0.938786726572993</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>0.938786726572993</v>
+        <v>0.934880432895426</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>0.9348804328954257</v>
+        <v>0.938186336447246</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>0.9381863364472456</v>
+        <v>0.900160385223897</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>0.9001603852238969</v>
+        <v>0.920953796318861</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>0.9209537963188607</v>
+        <v>0.960460098923517</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>0.9604600989235174</v>
+        <v>0.914425366152573</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>0.9144253661525729</v>
+        <v>0.954532286602957</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>0.9545322866029571</v>
+        <v>0.908231641026354</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>0.9082316410263539</v>
+        <v>0.921998438543471</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>0.921998438543471</v>
+        <v>0.932073221713709</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>0.9320732217137088</v>
+        <v>0.956090668046523</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>0.9560906680465233</v>
+        <v>0.899510182269728</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>0.8995101822697278</v>
+        <v>0.925280927478155</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>0.925280927478155</v>
+        <v>0.935616121616829</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>0.9356161216168295</v>
+        <v>0.912219220914966</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>0.9122192209149662</v>
+        <v>0.944985850659417</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>0.9449858506594166</v>
+        <v>0.885424366538025</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>0.8854243665380255</v>
+        <v>0.891952045178665</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>0.8919520451786653</v>
+        <v>0.932681071107922</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>0.9326810711079216</v>
+        <v>0.883894050527729</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>0.8838940505277288</v>
+        <v>0.911504575738189</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>0.9115045757381891</v>
+        <v>0.987329014402779</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>0.9873290144027789</v>
+        <v>0.966355697592979</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>0.9663556975929788</v>
+        <v>0.907904090348679</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>0.9079040903486788</v>
+        <v>0.945618549993802</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>0.9456185499938018</v>
+        <v>0.914619164806156</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>0.9146191648061556</v>
+        <v>0.93329004305302</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>0.93329004305302</v>
+        <v>0.902287180677842</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>0.9022871806778419</v>
+        <v>0.903943117347391</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>0.9039431173473911</v>
+        <v>0.913202214694438</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>0.913202214694438</v>
+        <v>0.941469873283192</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>0.9414698732831916</v>
+        <v>0.932681071107922</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>0.9326810711079216</v>
+        <v>0.896948056089531</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>0.8969480560895314</v>
+        <v>0.882979941747976</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>0.8829799417479762</v>
+        <v>0.957774028901385</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>0.9577740289013849</v>
+        <v>0.968618952213471</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>0.9686189522134708</v>
+        <v>0.932757410415528</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>0.9327574104155283</v>
+        <v>0.954509856029875</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>0.9545098560298748</v>
+        <v>0.965770381452127</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>0.9657703814521271</v>
+        <v>0.945735253142535</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>0.9457352531425347</v>
+        <v>0.914747098743901</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>0.9147470987439008</v>
+        <v>0.858916842077168</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>0.8589168420771676</v>
+        <v>0.90841741773212</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>0.9084174177321204</v>
+        <v>0.901686055725709</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>0.9016860557257089</v>
+        <v>0.86630401518485</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>0.8663040151848499</v>
+        <v>0.931356638430318</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>0.9313566384303179</v>
+        <v>0.925543659644384</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>0.925543659644384</v>
+        <v>0.915480275681733</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>0.9154802756817334</v>
+        <v>0.914063060813393</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>0.9140630608133934</v>
+        <v>0.959627477510372</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>0.9596274775103724</v>
+        <v>0.952727332139035</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>0.9527273321390355</v>
+        <v>0.930705382496032</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>0.9307053824960316</v>
+        <v>0.90841741773212</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>0.9084174177321204</v>
+        <v>0.879092976919003</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>0.8790929769190035</v>
+        <v>0.927284253193336</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>0.927284253193336</v>
+        <v>0.928573958584549</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>0.9285739585845495</v>
+        <v>0.965770381452127</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>0.9657703814521271</v>
+        <v>0.92117738937569</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>0.9211773893756905</v>
+        <v>0.932207728236511</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>0.9322077282365109</v>
+        <v>0.943704007238574</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>0.9437040072385738</v>
+        <v>0.904661754891335</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>0.9046617548913355</v>
+        <v>0.952165194643782</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>0.952165194643782</v>
+        <v>0.962950937258022</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>0.9629509372580224</v>
+        <v>0.948439483469376</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>0.9484394834693765</v>
+        <v>0.877170345284854</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>0.8771703452848536</v>
+        <v>0.899452218815665</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>0.8994522188156648</v>
+        <v>0.925076529234459</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>0.925076529234459</v>
+        <v>0.921307116897502</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>0.9213071168975018</v>
+        <v>0.948439483469376</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>0.9484394834693765</v>
+        <v>0.943530041909287</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>0.9435300419092867</v>
+        <v>0.927140677543961</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>0.927140677543961</v>
+        <v>0.90261020189963</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>0.9026102018996305</v>
+        <v>0.904661754891335</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>0.9046617548913355</v>
+        <v>0.914183288978851</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>0.9141832889788513</v>
+        <v>0.947673913628021</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>0.9476739136280214</v>
+        <v>0.981634787912201</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>0.9816347879122012</v>
+        <v>0.923085650015498</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>0.9230856500154979</v>
+        <v>0.877854740006597</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>0.8778547400065967</v>
+        <v>0.92609370969294</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>0.9260937096929396</v>
+        <v>0.884156624286728</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>0.8841566242867283</v>
+        <v>0.873515328159517</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>0.8735153281595166</v>
+        <v>0.949885612783133</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>0.9498856127831334</v>
+        <v>0.897866491548897</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>0.8978664915488968</v>
+        <v>0.91728037407945</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>0.9172803740794496</v>
+        <v>0.910873511991085</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>0.9108735119910846</v>
+        <v>0.95593095794753</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>0.9559309579475299</v>
+        <v>0.924258354054951</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>0.9242583540549508</v>
+        <v>0.933487785452863</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>0.9334877854528632</v>
+        <v>0.930669233213325</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>0.9306692332133253</v>
+        <v>0.909098248096419</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>0.9090982480964191</v>
+        <v>0.954181304399155</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>0.9541813043991549</v>
+        <v>0.907825593202936</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>0.9078255932029364</v>
+        <v>0.945228860329176</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>0.9452288603291756</v>
+        <v>0.956991504825148</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>0.9569915048251477</v>
+        <v>0.946744712312247</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>0.9467447123122472</v>
+        <v>0.840247340773779</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>0.8402473407737793</v>
+        <v>0.951340286831265</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>0.9513402868312648</v>
+        <v>0.834617056707239</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>0.8346170567072387</v>
+        <v>0.941469873283192</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>0.9414698732831916</v>
+        <v>0.923266268477034</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>0.9232662684770341</v>
+        <v>0.965675573678101</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>0.9656755736781006</v>
+        <v>0.946109501358966</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>0.946109501358966</v>
+        <v>0.950903833160669</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>0.9509038331606687</v>
+        <v>0.904420974203751</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>0.9044209742037508</v>
+        <v>0.902315653163354</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>0.9023156531633543</v>
+        <v>0.88939684436831</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>0.8893968443683096</v>
+        <v>0.885424366538025</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>0.8854243665380255</v>
+        <v>0.871906538741868</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>0.8719065387418681</v>
+        <v>0.903072551983106</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>0.9030725519831058</v>
+        <v>0.848414955573402</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>0.8484149555734024</v>
+        <v>0.940640328076533</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>0.940640328076533</v>
+        <v>0.944679074354273</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>0.9446790743542731</v>
+        <v>0.960287233291677</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>0.9602872332916772</v>
+        <v>0.948156809046382</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>0.9481568090463821</v>
+        <v>0.954866995831762</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>0.9548669958317622</v>
+        <v>0.877043566851553</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>0.8770435668515527</v>
+        <v>0.943169950038137</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>0.9431699500381373</v>
+        <v>0.929072954100118</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>0.9290729541001179</v>
+        <v>0.931356638430318</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>0.9313566384303179</v>
+        <v>0.925907054119838</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>0.9259070541198375</v>
+        <v>0.939740159361697</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>0.9397401593616965</v>
+        <v>0.911667340739252</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>0.9116673407392517</v>
+        <v>0.930121934527338</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>0.9301219345273382</v>
+        <v>0.883919938196482</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>0.8839199381964823</v>
+        <v>0.952165194643782</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>0.952165194643782</v>
+        <v>0.904842483326392</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>0.9048424833263916</v>
+        <v>0.898892243398967</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>0.8988922433989668</v>
+        <v>0.920498522443242</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>0.9204985224432416</v>
+        <v>0.91089084995163</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>0.9108908499516304</v>
+        <v>0.924373471165036</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>0.9243734711650362</v>
+        <v>0.892076100984909</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>0.8920761009849092</v>
+        <v>0.908453151068533</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>0.9084531510685326</v>
+        <v>0.956793984112456</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>0.9567939841124558</v>
+        <v>0.842880694198183</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>0.8428806941981831</v>
+        <v>0.913108496207123</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>0.9131084962071226</v>
+        <v>0.881750688200176</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>0.8817506882001758</v>
+        <v>0.902524833373765</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>0.9025248333737654</v>
+        <v>0.911374864036895</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>0.9113748640368946</v>
+        <v>0.90514811735295</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>0.9051481173529499</v>
+        <v>0.910873511991085</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>0.9108735119910846</v>
+        <v>0.962174007616833</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>0.9621740076168329</v>
+        <v>0.92172740775316</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>0.9217274077531602</v>
+        <v>0.885639072322679</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>0.8856390723226795</v>
+        <v>0.985437355631065</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>0.9854373556310649</v>
+        <v>0.941875917746328</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>0.9418759177463277</v>
+        <v>0.956348402313968</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>0.9563484023139682</v>
+        <v>0.919498030663445</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>0.919498030663445</v>
+        <v>0.866058153418625</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>0.8660581534186251</v>
+        <v>0.864982522298836</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>0.8649825222988357</v>
+        <v>0.948156809046382</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>0.9481568090463821</v>
+        <v>0.90027343475361</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>0.9002734347536104</v>
+        <v>0.942356857267572</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>0.9423568572675722</v>
+        <v>0.946924252392698</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>0.9469242523926977</v>
+        <v>0.951094451550621</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>0.951094451550621</v>
+        <v>0.908081511317283</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>0.9080815113172833</v>
+        <v>0.937444541103159</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>0.9374445411031586</v>
+        <v>0.938786726572993</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>0.938786726572993</v>
+        <v>0.914617795718529</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>0.9146177957185289</v>
+        <v>0.911504575738189</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>0.9115045757381891</v>
+        <v>0.895647820963489</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>0.8956478209634894</v>
+        <v>0.968999714558398</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>0.9689997145583984</v>
+        <v>0.968618952213471</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>0.9686189522134708</v>
+        <v>0.952855158456454</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>0.9528551584564542</v>
+        <v>0.973589340790585</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>0.9735893407905849</v>
+        <v>0.920498522443242</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>0.9204985224432416</v>
+        <v>0.946386173915753</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>0.9463861739157525</v>
+        <v>0.93369478389891</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>0.9336947838989098</v>
+        <v>0.909957313602942</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>0.9099573136029416</v>
+        <v>0.922998501702618</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>0.9229985017026182</v>
+        <v>0.933873738755049</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>0.9338737387550489</v>
+        <v>0.920667657240704</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>0.9206676572407037</v>
+        <v>0.917077393222923</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>0.9170773932229228</v>
+        <v>0.905766467037877</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>0.9057664670378772</v>
+        <v>0.948114155288721</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>0.9481141552887208</v>
+        <v>0.919498030663445</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>0.919498030663445</v>
+        <v>0.939108052671951</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>0.9391080526719511</v>
+        <v>0.930581218419525</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>0.9305812184195248</v>
+        <v>0.863983298643703</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>0.8639832986437026</v>
+        <v>0.893538114488771</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>0.8935381144887706</v>
+        <v>0.950613396602299</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>0.9506133966022995</v>
+        <v>0.942553959367554</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>0.9425539593675536</v>
+        <v>0.940201639248266</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>0.9402016392482663</v>
+        <v>0.96659827480274</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>0.9665982748027395</v>
+        <v>0.936068908914079</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>0.9360689089140793</v>
+        <v>0.956401135770669</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>0.9564011357706689</v>
+        <v>0.850925514346072</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>0.8509255143460721</v>
+        <v>0.932988904351203</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>0.9329889043512026</v>
+        <v>0.924657760876518</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>0.9246577608765181</v>
+        <v>0.946106245399535</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>0.9461062453995348</v>
+        <v>0.931867564195907</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>0.9318675641959069</v>
+        <v>0.949532827906505</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>0.9495328279065052</v>
+        <v>0.909500194478606</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>0.9095001944786056</v>
+        <v>0.949005398330716</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>0.9490053983307162</v>
+        <v>0.93580776020232</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>0.9358077602023196</v>
+        <v>0.948976703035344</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>0.9489767030353444</v>
+        <v>0.871830669397028</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>0.871830669397028</v>
+        <v>0.92117738937569</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>0.9211773893756905</v>
+        <v>0.918376473057733</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>0.9183764730577333</v>
+        <v>0.90446110803932</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>0.9044611080393196</v>
+        <v>0.944753349383473</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>0.944753349383473</v>
+        <v>0.92407126613929</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>0.9240712661392897</v>
+        <v>0.93619896821452</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>0.9361989682145196</v>
+        <v>0.912167594196614</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>0.9121675941966138</v>
+        <v>0.876299577391081</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>0.8762995773910809</v>
+        <v>0.954402360952085</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>0.9544023609520853</v>
+        <v>0.934880432895426</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>0.9348804328954257</v>
+        <v>0.896948056089531</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>0.8969480560895314</v>
+        <v>0.877170345284854</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>0.8771703452848536</v>
+        <v>0.920705496978392</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>0.9207054969783923</v>
+        <v>0.931931627029286</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>0.9319316270292863</v>
+        <v>0.901384464046057</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>0.9013844640460565</v>
+        <v>0.929696105286577</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>0.9296961052865769</v>
+        <v>0.93205722108401</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>0.9320572210840098</v>
+        <v>0.869177415228772</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>0.8691774152287723</v>
+        <v>0.88855131929036</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>0.8885513192903597</v>
+        <v>0.922872291721535</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>0.922872291721535</v>
+        <v>0.954532286602957</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>0.9545322866029571</v>
+        <v>0.871681412219015</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>0.8716814122190154</v>
+        <v>0.901607878544306</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>0.9016078785443056</v>
+        <v>0.943293253999363</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>0.9432932539993627</v>
+        <v>0.936448562308162</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>0.9364485623081622</v>
+        <v>0.963538561962522</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>0.9635385619625219</v>
+        <v>0.927575807126612</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>0.927575807126612</v>
+        <v>0.910628400815763</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>0.9106284008157634</v>
+        <v>0.940528762650664</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>0.9405287626506639</v>
+        <v>0.911207609375118</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>0.9112076093751178</v>
+        <v>0.936673607064574</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>0.9366736070645738</v>
+        <v>0.924458422470181</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>0.9244584224701813</v>
+        <v>0.918924945679463</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>0.9189249456794629</v>
+        <v>0.933726306221572</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>0.9337263062215717</v>
+        <v>0.898450912128109</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>0.8984509121281092</v>
+        <v>0.876873897248308</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>0.876873897248308</v>
+        <v>0.92041828284418</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>0.9204182828441803</v>
+        <v>0.960672569649331</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>0.9606725696493308</v>
+        <v>0.951964364918235</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>0.9519643649182353</v>
+        <v>0.899780040098993</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>0.899780040098993</v>
+        <v>0.938285580213878</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>0.9382855802138778</v>
+        <v>0.958048911853792</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>0.9580489118537925</v>
+        <v>0.892043050689076</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>0.8920430506890762</v>
+        <v>0.940215171473467</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>0.9402151714734668</v>
+        <v>0.888308707153956</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>0.8883087071539559</v>
+        <v>0.985437355631065</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>0.9854373556310649</v>
+        <v>0.918990038947479</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>0.918990038947479</v>
+        <v>0.871830669397028</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>0.871830669397028</v>
+        <v>0.932313080586093</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>0.9323130805860925</v>
+        <v>0.868834507808396</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>0.8688345078083964</v>
+        <v>0.943910739627528</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>0.9439107396275285</v>
+        <v>0.923228928177391</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>0.9232289281773909</v>
+        <v>0.934427494127409</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>0.9344274941274089</v>
+        <v>0.899510182269728</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>0.8995101822697278</v>
+        <v>0.940640328076533</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>0.940640328076533</v>
+        <v>0.860488908692657</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>0.8604889086926573</v>
+        <v>0.987904650694003</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>0.9879046506940034</v>
+        <v>0.92041828284418</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>0.9204182828441803</v>
+        <v>0.858916842077168</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>0.8589168420771676</v>
+        <v>0.93483548380401</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>0.9348354838040096</v>
+        <v>0.948634981328266</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>0.948634981328266</v>
+        <v>0.940264943158867</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>0.9402649431588666</v>
+        <v>0.888986687046368</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>0.8889866870463682</v>
+        <v>0.940994170651453</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>0.9409941706514531</v>
+        <v>0.94710506307689</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>0.9471050630768905</v>
+        <v>0.928612275926462</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>0.9286122759264622</v>
+        <v>0.929305571933604</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>0.9293055719336042</v>
+        <v>0.93846025417211</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>0.9384602541721101</v>
+        <v>0.866884837051554</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>0.8668848370515536</v>
+        <v>0.894893921548066</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>0.894893921548066</v>
+        <v>0.869888267189918</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>0.8698882671899179</v>
+        <v>0.943793443527687</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>0.9437934435276868</v>
+        <v>0.927575807126612</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>0.927575807126612</v>
+        <v>0.917202762015681</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>0.9172027620156811</v>
+        <v>0.935163739360952</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>0.9351637393609518</v>
+        <v>0.868834507808396</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>0.8688345078083964</v>
+        <v>0.911374864036895</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>0.9113748640368946</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827">
-        <v>0.9538388724967022</v>
+        <v>0.953838872496702</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>